--- a/microblaze.xlsx
+++ b/microblaze.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t xml:space="preserve">Ergebnisse:</t>
   </si>
@@ -128,6 +128,36 @@
   </si>
   <si>
     <t xml:space="preserve">INTEGER &amp; READING        64 Kb block: 22.95 MB/s      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100000: ms for one run: 17,2 – DPS 58139,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total ticks      : 16150093                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">500000: ms for one run: 18,3 – DPS 54585,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total time (secs): 16.150093                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000000:  ms for one run: 18,8– DPS 53106,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iterations/Sec   : 68.111063                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000000: ms for one run: 18,8 – DPS 53146,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iterations       : 1100                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000000 ms for one run: 18,5 – DPS 54027,8</t>
   </si>
 </sst>
 </file>
@@ -143,6 +173,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -232,10 +263,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -246,7 +277,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="38.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="38.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="26.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="45.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="45.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.94"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
@@ -388,6 +419,141 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I11" s="2"/>
       <c r="K11" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>48.33</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="L15" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I21" s="1"/>
+      <c r="K21" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="2"/>
+      <c r="K22" s="0" t="s">
         <v>35</v>
       </c>
     </row>

--- a/microblaze.xlsx
+++ b/microblaze.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
   <si>
     <t xml:space="preserve">Ergebnisse:</t>
   </si>
@@ -158,22 +158,73 @@
   </si>
   <si>
     <t xml:space="preserve">10000000 ms for one run: 18,5 – DPS 54027,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit FPU (Primäre Y-Achse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ohne FPU (Primäre Y-Achse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit FPU (Sekundäre Y-Achse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ohne FPU (Sekundäre Y-Achse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total ticks      :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total time (secs): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iterations/Sec   :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Kb Block:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Kb Block:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Kb Block:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Kb Block:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 Kb Block:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 Kb Block:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64 Kb Block:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ms für einen Lauf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMIPS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -189,6 +240,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -233,7 +294,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -246,6 +307,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -255,7 +320,1720 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFD320"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF420E"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF579D1C"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Dhrystone</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ms für einen Lauf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$75:$D$79</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$75:$E$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DMIPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$75:$D$79</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$75:$F$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>33.0902105862265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.0672737620945</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.2257825839499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.2483210017075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.7500284575982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="94052289"/>
+        <c:axId val="3447464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="94052289"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Anzahl der Läufe</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="3447464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="3447464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="94052289"/>
+        <c:crossesAt val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Dhrystone</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ms für einen Lauf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$75:$I$79</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$75:$J$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>17.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DMIPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$75:$I$79</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$75:$K$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.3381900967558</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.7961866818441</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.6742174160501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.801593625498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.907000569152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="17651601"/>
+        <c:axId val="62840096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="17651601"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Anzahl der Läufe</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62840096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="62840096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17651601"/>
+        <c:crossesAt val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>CoreMark</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$24:$F$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mit FPU (Primäre Y-Achse)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$26:$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Total ticks      :</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total time (secs): </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterations/Sec   :</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$26:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16168215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$24:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ohne FPU (Primäre Y-Achse)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$26:$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Total ticks      :</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total time (secs): </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterations/Sec   :</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$26:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16150093</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$24:$H$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mit FPU (Sekundäre Y-Achse)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$26:$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Total ticks      :</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total time (secs): </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterations/Sec   :</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$26:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.168215</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.034721</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$24:$I$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ohne FPU (Sekundäre Y-Achse)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$26:$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Total ticks      :</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total time (secs): </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterations/Sec   :</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$26:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.150093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.111063</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="68933457"/>
+        <c:axId val="55950209"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="68933457"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55950209"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="55950209"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="68933457"/>
+        <c:crosses val="max"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Ramspeed</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MB/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$39:$I$45</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1 Kb Block:</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Kb Block:</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 Kb Block:</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8 Kb Block:</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16 Kb Block:</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32 Kb Block:</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64 Kb Block:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$39:$J$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>179.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>181.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="79078477"/>
+        <c:axId val="37610853"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="79078477"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Größe des Blockes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="37610853"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="37610853"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Geschwindigkeit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79078477"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>51480</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>96120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1800</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>7200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="51480" y="4972680"/>
+        <a:ext cx="4501800" cy="3162240"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>64080</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133920</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>51840</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="14797080" y="4939920"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>23760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>385200</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>12240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="826920" y="7501320"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>544320</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1468440</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>57960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3916800" y="11902680"/>
+        <a:ext cx="7264440" cy="4086000"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -263,19 +2041,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I64" activeCellId="0" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.38"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="38.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="38.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="44.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="26.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="45.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.94"/>
@@ -557,6 +2337,254 @@
         <v>35</v>
       </c>
     </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>16168215</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>16150093</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>16.168215</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>16.150093</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>68.034721</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>68.111063</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J38" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I39" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>179.56</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I40" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>181.26</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I41" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>171.54</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I42" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>22.91</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I43" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>22.92</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I44" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>22.94</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F45" s="3"/>
+      <c r="I45" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F49" s="3"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E74" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D75" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="F75" s="3" t="n">
+        <f aca="false">58139.5/1757</f>
+        <v>33.0902105862265</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="J75" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="K75" s="3" t="n">
+        <f aca="false">56818.2/1757</f>
+        <v>32.3381900967558</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D76" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="F76" s="3" t="n">
+        <f aca="false">54585.2/1757</f>
+        <v>31.0672737620945</v>
+      </c>
+      <c r="I76" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J76" s="0" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K76" s="3" t="n">
+        <f aca="false">55865.9/1757</f>
+        <v>31.7961866818441</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D77" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="F77" s="3" t="n">
+        <f aca="false">53106.7/1757</f>
+        <v>30.2257825839499</v>
+      </c>
+      <c r="I77" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="J77" s="0" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K77" s="3" t="n">
+        <f aca="false">52137.6/1757</f>
+        <v>29.6742174160501</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D78" s="0" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="F78" s="3" t="n">
+        <f aca="false">53146.3/1757</f>
+        <v>30.2483210017075</v>
+      </c>
+      <c r="I78" s="0" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="J78" s="0" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="K78" s="3" t="n">
+        <f aca="false">54118.4/1757</f>
+        <v>30.801593625498</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D79" s="0" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F79" s="3" t="n">
+        <f aca="false">54027.8/1757</f>
+        <v>30.7500284575982</v>
+      </c>
+      <c r="I79" s="0" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="J79" s="0" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="K79" s="3" t="n">
+        <f aca="false">54303.6/1757</f>
+        <v>30.907000569152</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -565,5 +2593,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/microblaze.xlsx
+++ b/microblaze.xlsx
@@ -106,7 +106,7 @@
     <t xml:space="preserve">INTEGER &amp; READING         4 Kb block: 171.54 MB/s                               </t>
   </si>
   <si>
-    <t xml:space="preserve">Iterations/Sec   : 68.034721                                                    </t>
+    <t xml:space="preserve">Iterations/Sec   : 123,699493</t>
   </si>
   <si>
     <t xml:space="preserve">5000000: ms for one run: 18,5 – DPS 54118,4</t>
@@ -115,7 +115,7 @@
     <t xml:space="preserve">INTEGER &amp; READING         8 Kb block: 22.91 MB/s                                </t>
   </si>
   <si>
-    <t xml:space="preserve">Iterations       : 1100            </t>
+    <t xml:space="preserve">Iterations       : 2000</t>
   </si>
   <si>
     <t xml:space="preserve">10000000 ms for one run: 18,4 – DPS 54303,6</t>
@@ -148,13 +148,13 @@
     <t xml:space="preserve">1000000:  ms for one run: 18,8– DPS 53106,7</t>
   </si>
   <si>
-    <t xml:space="preserve">Iterations/Sec   : 68.111063                                                    </t>
+    <t xml:space="preserve">Iterations/Sec   : 123,838296                                         </t>
   </si>
   <si>
     <t xml:space="preserve">5000000: ms for one run: 18,8 – DPS 53146,3</t>
   </si>
   <si>
-    <t xml:space="preserve">Iterations       : 1100                                                   </t>
+    <t xml:space="preserve">Iterations       : 2000           </t>
   </si>
   <si>
     <t xml:space="preserve">10000000 ms for one run: 18,5 – DPS 54027,8</t>
@@ -383,7 +383,343 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Ramspeed</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MB/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$39:$I$45</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1 Kb Block:</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Kb Block:</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 Kb Block:</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8 Kb Block:</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16 Kb Block:</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32 Kb Block:</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64 Kb Block:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$39:$J$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>179.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>181.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="6589708"/>
+        <c:axId val="79465964"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="6589708"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Größe des Blockes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79465964"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="79465964"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="210"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Geschwindigkeit (MB/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="6589708"/>
+        <c:crossesAt val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -592,11 +928,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="94052289"/>
-        <c:axId val="3447464"/>
+        <c:axId val="39125199"/>
+        <c:axId val="12971106"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94052289"/>
+        <c:axId val="39125199"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -669,14 +1005,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3447464"/>
+        <c:crossAx val="12971106"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3447464"/>
+        <c:axId val="12971106"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
@@ -721,7 +1057,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94052289"/>
+        <c:crossAx val="39125199"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -757,7 +1093,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -966,11 +1302,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="17651601"/>
-        <c:axId val="62840096"/>
+        <c:axId val="53115479"/>
+        <c:axId val="11568964"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="17651601"/>
+        <c:axId val="53115479"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1043,14 +1379,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62840096"/>
+        <c:crossAx val="11568964"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62840096"/>
+        <c:axId val="11568964"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
@@ -1095,7 +1431,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17651601"/>
+        <c:crossAx val="53115479"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -1131,7 +1467,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1185,7 +1521,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$24:$F$25</c:f>
+              <c:f>label 0</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1213,7 +1549,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$E$26:$E$28</c:f>
+              <c:f>categories</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1230,7 +1566,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$26:$F$28</c:f>
+              <c:f>0</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1252,7 +1588,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$24:$G$25</c:f>
+              <c:f>label 1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1280,7 +1616,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$E$26:$E$28</c:f>
+              <c:f>categories</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1297,7 +1633,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$26:$G$28</c:f>
+              <c:f>1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1319,7 +1655,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$24:$H$25</c:f>
+              <c:f>label 2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1347,7 +1683,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$E$26:$E$28</c:f>
+              <c:f>categories</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1364,7 +1700,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$26:$H$28</c:f>
+              <c:f>2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1375,7 +1711,7 @@
                   <c:v>16.168215</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68.034721</c:v>
+                  <c:v>123.699493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1386,7 +1722,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$24:$I$25</c:f>
+              <c:f>label 3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1414,7 +1750,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$E$26:$E$28</c:f>
+              <c:f>categories</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1431,7 +1767,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$26:$I$28</c:f>
+              <c:f>3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1442,7 +1778,7 @@
                   <c:v>16.150093</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68.111063</c:v>
+                  <c:v>123.838296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1450,17 +1786,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="68933457"/>
-        <c:axId val="55950209"/>
+        <c:axId val="86380351"/>
+        <c:axId val="38539386"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68933457"/>
+        <c:axId val="86380351"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="t"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="DD/MM/YYYY" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1489,14 +1825,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55950209"/>
+        <c:crossAx val="38539386"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55950209"/>
+        <c:axId val="38539386"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1531,352 +1867,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68933457"/>
+        <c:crossAx val="86380351"/>
         <c:crosses val="max"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Ramspeed</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$J$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MB/s</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$I$39:$I$45</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1 Kb Block:</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2 Kb Block:</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4 Kb Block:</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8 Kb Block:</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16 Kb Block:</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32 Kb Block:</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64 Kb Block:</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$J$39:$J$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>179.56</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>181.26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>171.54</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.91</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22.92</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.94</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22.95</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="79078477"/>
-        <c:axId val="37610853"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="79078477"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Größe des Blockes</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="37610853"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="37610853"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Geschwindigkeit</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="79078477"/>
-        <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1915,16 +1907,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>51480</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>96120</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1889640</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1800</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>617400</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1932,8 +1924,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="51480" y="4972680"/>
-        <a:ext cx="4501800" cy="3162240"/>
+        <a:off x="11602440" y="8569080"/>
+        <a:ext cx="6935760" cy="3901320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1945,16 +1937,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>64080</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>416160</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>133920</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>51840</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>35280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1962,42 +1954,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14797080" y="4939920"/>
+        <a:off x="2854440" y="7687080"/>
         <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>14400</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>23760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>385200</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="826920" y="7501320"/>
-        <a:ext cx="5759640" cy="3239640"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2018,12 +1980,42 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvPr id="2" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3916800" y="11902680"/>
         <a:ext cx="7264440" cy="4086000"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>554760</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>81720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1397160</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>140040</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1367280" y="6421320"/>
+        <a:ext cx="9742680" cy="4122360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2043,8 +2035,8 @@
   </sheetPr>
   <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I64" activeCellId="0" sqref="I64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2381,10 +2373,10 @@
         <v>52</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>68.034721</v>
+        <v>123.699493</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>68.111063</v>
+        <v>123.838296</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/microblaze.xlsx
+++ b/microblaze.xlsx
@@ -220,11 +220,12 @@
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -243,11 +244,24 @@
     </font>
     <font>
       <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -383,7 +397,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -456,6 +470,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -525,11 +540,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="6589708"/>
-        <c:axId val="79465964"/>
+        <c:axId val="29871164"/>
+        <c:axId val="68526701"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="6589708"/>
+        <c:axId val="29871164"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -602,14 +617,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79465964"/>
+        <c:crossAx val="68526701"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79465964"/>
+        <c:axId val="68526701"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="210"/>
@@ -664,7 +679,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -693,7 +708,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6589708"/>
+        <c:crossAx val="29871164"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -719,7 +734,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -792,6 +807,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -871,6 +887,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -928,11 +945,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="39125199"/>
-        <c:axId val="12971106"/>
+        <c:axId val="71519025"/>
+        <c:axId val="72370717"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39125199"/>
+        <c:axId val="71519025"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1005,14 +1022,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12971106"/>
+        <c:crossAx val="72370717"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="12971106"/>
+        <c:axId val="72370717"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
@@ -1028,7 +1045,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1057,7 +1074,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39125199"/>
+        <c:crossAx val="71519025"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -1093,7 +1110,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1166,6 +1183,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1245,6 +1263,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1302,11 +1321,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="53115479"/>
-        <c:axId val="11568964"/>
+        <c:axId val="26562281"/>
+        <c:axId val="97064322"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="53115479"/>
+        <c:axId val="26562281"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,14 +1398,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11568964"/>
+        <c:crossAx val="97064322"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11568964"/>
+        <c:axId val="97064322"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
@@ -1402,7 +1421,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1431,7 +1450,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53115479"/>
+        <c:crossAx val="26562281"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -1467,7 +1486,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1540,6 +1559,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1607,6 +1627,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1674,6 +1695,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1705,13 +1727,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>16.168215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123.699493</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.168215</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>123.699493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1741,6 +1763,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1772,13 +1795,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>16.150093</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123.838296</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.150093</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>123.838296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1786,16 +1809,16 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="86380351"/>
-        <c:axId val="38539386"/>
+        <c:axId val="14556247"/>
+        <c:axId val="84448509"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86380351"/>
+        <c:axId val="14556247"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
-        <c:axPos val="t"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="DD/MM/YYYY" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1825,20 +1848,20 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38539386"/>
-        <c:crosses val="max"/>
+        <c:crossAx val="84448509"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38539386"/>
+        <c:axId val="84448509"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1867,7 +1890,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86380351"/>
+        <c:crossAx val="14556247"/>
         <c:crosses val="max"/>
       </c:valAx>
       <c:spPr>
@@ -1908,15 +1931,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1889640</xdr:colOff>
+      <xdr:colOff>1895400</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>116280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>617400</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:colOff>1113480</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1924,8 +1947,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11602440" y="8569080"/>
-        <a:ext cx="6935760" cy="3901320"/>
+        <a:off x="11608200" y="8569080"/>
+        <a:ext cx="7426080" cy="4516920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1944,9 +1967,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:colOff>1599840</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1955,7 +1978,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2854440" y="7687080"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1974,9 +1997,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1468440</xdr:colOff>
+      <xdr:colOff>1468080</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1985,7 +2008,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3916800" y="11902680"/>
-        <a:ext cx="7264440" cy="4086000"/>
+        <a:ext cx="7264080" cy="4085640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2004,9 +2027,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1397160</xdr:colOff>
+      <xdr:colOff>1396800</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>140040</xdr:rowOff>
+      <xdr:rowOff>139680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2015,7 +2038,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1367280" y="6421320"/>
-        <a:ext cx="9742680" cy="4122360"/>
+        <a:ext cx="9742320" cy="4122000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2035,8 +2058,8 @@
   </sheetPr>
   <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L86" activeCellId="0" sqref="L86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
